--- a/tables/Table_S3_seasonal_basal_resources.xlsx
+++ b/tables/Table_S3_seasonal_basal_resources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\17035\Desktop\GitHub\Brown-Green\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D67EA8-AE8B-4B35-9689-2435BB77E7C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E352FA-A6C7-4AB8-BD6A-210CC5B1A8CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24015" yWindow="0" windowWidth="17235" windowHeight="21000" xr2:uid="{0196B2DD-3DCA-42B2-BB06-5F511D0AD05E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{0196B2DD-3DCA-42B2-BB06-5F511D0AD05E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="31">
   <si>
     <t>Site</t>
   </si>
@@ -824,7 +824,7 @@
   <dimension ref="A1:J73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2115,13 +2115,21 @@
       <c r="E44" s="3">
         <v>-12.99</v>
       </c>
-      <c r="F44" s="3"/>
+      <c r="F44" s="3">
+        <v>0.41</v>
+      </c>
       <c r="G44" s="4">
         <v>0.9</v>
       </c>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
+      <c r="H44" s="4">
+        <v>1</v>
+      </c>
+      <c r="I44" s="4">
+        <v>5.45</v>
+      </c>
+      <c r="J44" s="4">
+        <v>5.34</v>
+      </c>
     </row>
     <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="22"/>
@@ -2135,13 +2143,21 @@
       <c r="E45" s="11">
         <v>-16.329999999999998</v>
       </c>
-      <c r="F45" s="11"/>
+      <c r="F45" s="11">
+        <v>1.36</v>
+      </c>
       <c r="G45" s="9">
         <v>2.7</v>
       </c>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="10"/>
+      <c r="H45" s="9">
+        <v>2.06</v>
+      </c>
+      <c r="I45" s="9">
+        <v>7.42</v>
+      </c>
+      <c r="J45" s="10">
+        <v>4.8099999999999996</v>
+      </c>
     </row>
     <row r="46" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="22"/>
@@ -2157,15 +2173,21 @@
       <c r="E46" s="4">
         <v>-12.82</v>
       </c>
-      <c r="F46" s="4"/>
+      <c r="F46" s="4">
+        <v>0.91</v>
+      </c>
       <c r="G46" s="8">
         <v>2.78</v>
       </c>
-      <c r="H46" s="4"/>
+      <c r="H46" s="4">
+        <v>2.0699999999999998</v>
+      </c>
       <c r="I46" s="4">
         <v>15.35</v>
       </c>
-      <c r="J46" s="4"/>
+      <c r="J46" s="4">
+        <v>7.06</v>
+      </c>
     </row>
     <row r="47" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="22"/>
@@ -2179,15 +2201,21 @@
       <c r="E47" s="9">
         <v>-19.88</v>
       </c>
-      <c r="F47" s="9"/>
+      <c r="F47" s="9">
+        <v>0.76</v>
+      </c>
       <c r="G47" s="10">
         <v>2.6</v>
       </c>
-      <c r="H47" s="9"/>
+      <c r="H47" s="9">
+        <v>0.39</v>
+      </c>
       <c r="I47" s="9">
         <v>15.4</v>
       </c>
-      <c r="J47" s="10"/>
+      <c r="J47" s="10">
+        <v>0.98</v>
+      </c>
     </row>
     <row r="48" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="22"/>
@@ -2312,30 +2340,58 @@
       <c r="B52" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C52" s="4"/>
+      <c r="C52" s="4">
+        <v>12</v>
+      </c>
       <c r="D52" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
+      <c r="E52" s="3">
+        <v>-10.6</v>
+      </c>
+      <c r="F52" s="3">
+        <v>2.19</v>
+      </c>
+      <c r="G52" s="4">
+        <v>7.14</v>
+      </c>
+      <c r="H52" s="4">
+        <v>1.35</v>
+      </c>
+      <c r="I52" s="4">
+        <v>12.3</v>
+      </c>
+      <c r="J52" s="4">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="53" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="22"/>
       <c r="B53" s="26"/>
-      <c r="C53" s="9"/>
+      <c r="C53" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="D53" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="10"/>
+      <c r="E53" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I53" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J53" s="10" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="54" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="22"/>
@@ -2518,30 +2574,58 @@
       <c r="B60" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C60" s="4"/>
+      <c r="C60" s="4">
+        <v>12</v>
+      </c>
       <c r="D60" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
+      <c r="E60" s="3">
+        <v>-8.92</v>
+      </c>
+      <c r="F60" s="3">
+        <v>1.63</v>
+      </c>
+      <c r="G60" s="4">
+        <v>3.12</v>
+      </c>
+      <c r="H60" s="4">
+        <v>3.08</v>
+      </c>
+      <c r="I60" s="4">
+        <v>5.52</v>
+      </c>
+      <c r="J60" s="4">
+        <v>7.01</v>
+      </c>
     </row>
     <row r="61" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="22"/>
       <c r="B61" s="26"/>
-      <c r="C61" s="9"/>
+      <c r="C61" s="9">
+        <v>6</v>
+      </c>
       <c r="D61" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="9"/>
-      <c r="J61" s="10"/>
+      <c r="E61" s="11">
+        <v>-10.4</v>
+      </c>
+      <c r="F61" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="G61" s="9">
+        <v>3.49</v>
+      </c>
+      <c r="H61" s="9">
+        <v>2.58</v>
+      </c>
+      <c r="I61" s="9">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="J61" s="10">
+        <v>5.84</v>
+      </c>
     </row>
     <row r="62" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="22"/>
@@ -2666,7 +2750,9 @@
       <c r="B66" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C66" s="15"/>
+      <c r="C66" s="15">
+        <v>22</v>
+      </c>
       <c r="D66" s="2" t="s">
         <v>27</v>
       </c>
@@ -2692,7 +2778,9 @@
     <row r="67" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="22"/>
       <c r="B67" s="25"/>
-      <c r="C67" s="10"/>
+      <c r="C67" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="D67" s="6" t="s">
         <v>26</v>
       </c>
@@ -2720,30 +2808,58 @@
       <c r="B68" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C68" s="4"/>
+      <c r="C68" s="4">
+        <v>6</v>
+      </c>
       <c r="D68" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
-      <c r="I68" s="4"/>
-      <c r="J68" s="4"/>
+      <c r="E68" s="3">
+        <v>-8.3699999999999992</v>
+      </c>
+      <c r="F68" s="3">
+        <v>0.23</v>
+      </c>
+      <c r="G68" s="4">
+        <v>3.49</v>
+      </c>
+      <c r="H68" s="4">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="I68" s="4">
+        <v>6.71</v>
+      </c>
+      <c r="J68" s="4">
+        <v>3.12</v>
+      </c>
     </row>
     <row r="69" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="22"/>
       <c r="B69" s="26"/>
-      <c r="C69" s="9"/>
+      <c r="C69" s="9">
+        <v>6</v>
+      </c>
       <c r="D69" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="9"/>
-      <c r="J69" s="10"/>
+      <c r="E69" s="11">
+        <v>-8.5399999999999991</v>
+      </c>
+      <c r="F69" s="11">
+        <v>1.06</v>
+      </c>
+      <c r="G69" s="9">
+        <v>1.22</v>
+      </c>
+      <c r="H69" s="9">
+        <v>0.65</v>
+      </c>
+      <c r="I69" s="9">
+        <v>9.57</v>
+      </c>
+      <c r="J69" s="10">
+        <v>4.37</v>
+      </c>
     </row>
     <row r="70" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="22"/>
@@ -2863,51 +2979,51 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="A10:A17"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A26:A33"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A42:A49"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="A34:A41"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A58:A65"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="A50:A57"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B56:B57"/>
     <mergeCell ref="A66:A73"/>
     <mergeCell ref="B66:B67"/>
     <mergeCell ref="B68:B69"/>
     <mergeCell ref="B70:B71"/>
     <mergeCell ref="B72:B73"/>
-    <mergeCell ref="A50:A57"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="A58:A65"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="A34:A41"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="A42:A49"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A26:A33"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A10:A17"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
